--- a/тест_1.xlsx
+++ b/тест_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>№</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Екатеринбург ул.Индутрии 57</t>
-  </si>
-  <si>
-    <t>электоэнергия</t>
   </si>
   <si>
     <t>отопление</t>
@@ -420,7 +417,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -444,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -470,13 +467,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>12</v>
@@ -501,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>45.3</v>
@@ -524,7 +521,7 @@
         <v>58.499999999999986</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -532,13 +529,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>22</v>
@@ -563,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>12</v>
@@ -586,7 +583,7 @@
         <v>23.4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/тест_1.xlsx
+++ b/тест_1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -39,18 +39,6 @@
     <t>сумма</t>
   </si>
   <si>
-    <t>г.Екатеринбург ул.Индутрии 55</t>
-  </si>
-  <si>
-    <t>г.Екатеринбург ул.Индутрии 56</t>
-  </si>
-  <si>
-    <t>г.Екатеринбург Индутрии 58</t>
-  </si>
-  <si>
-    <t>Екатеринбург ул.Индутрии 57</t>
-  </si>
-  <si>
     <t>отопление</t>
   </si>
   <si>
@@ -79,13 +67,25 @@
   </si>
   <si>
     <t>12.02.2017</t>
+  </si>
+  <si>
+    <t>г.Екатеринбург, ул.Индутрии, 58</t>
+  </si>
+  <si>
+    <t>г.Екатеринбург, ул.Индутрии, 57</t>
+  </si>
+  <si>
+    <t>г.Екатеринбург, ул.Индутрии, 56</t>
+  </si>
+  <si>
+    <t>г.Екатеринбург, ул.Индутрии, 55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +212,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +247,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -413,27 +423,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +451,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -462,18 +472,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>12</v>
@@ -493,18 +503,18 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>45.3</v>
@@ -521,21 +531,21 @@
         <v>58.499999999999986</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>22</v>
@@ -555,18 +565,18 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>12</v>
@@ -583,7 +593,7 @@
         <v>23.4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -593,12 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -606,12 +616,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
